--- a/Project/Data/Water/Cantons/JU/JU 2016.xlsx
+++ b/Project/Data/Water/Cantons/JU/JU 2016.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>La Goule</t>
   </si>
   <si>
@@ -60,6 +39,36 @@
   </si>
   <si>
     <t>Bassecourt</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -114,11 +123,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -452,223 +462,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>510100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1894</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1958</v>
+      </c>
+      <c r="F2" s="3">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="I2" s="3">
+        <v>14</v>
+      </c>
+      <c r="J2" s="3">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>510100</v>
+        <v>109860</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="E3" s="2">
-        <v>1958</v>
+        <v>2001</v>
       </c>
       <c r="F3" s="3">
-        <v>22</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="3">
-        <v>5.6</v>
+        <v>0.32</v>
       </c>
       <c r="H3" s="3">
-        <v>5</v>
+        <v>0.32</v>
       </c>
       <c r="I3" s="3">
-        <v>14</v>
+        <v>0.92</v>
       </c>
       <c r="J3" s="3">
-        <v>12</v>
+        <v>0.61</v>
       </c>
       <c r="K3" s="3">
-        <v>26</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>109860</v>
+        <v>109915</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="E4" s="2">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="F4" s="3">
-        <v>1.5</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G4" s="3">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="3">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="I4" s="3">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="J4" s="3">
-        <v>0.61</v>
+        <v>0.96</v>
       </c>
       <c r="K4" s="3">
-        <v>1.53</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>109915</v>
+        <v>109850</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1905</v>
+        <v>1914</v>
       </c>
       <c r="E5" s="2">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F5" s="3">
-        <v>9.8000000000000007</v>
+        <v>3.9</v>
       </c>
       <c r="G5" s="3">
-        <v>0.52</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H5" s="3">
-        <v>0.46</v>
+        <v>0.72</v>
       </c>
       <c r="I5" s="3">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="J5" s="3">
-        <v>0.96</v>
+        <v>1.9</v>
       </c>
       <c r="K5" s="3">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>109850</v>
+        <v>109900</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>1914</v>
+        <v>1920</v>
       </c>
       <c r="E6" s="2">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="F6" s="3">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3">
-        <v>0.57999999999999996</v>
+        <v>1.03</v>
       </c>
       <c r="H6" s="3">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="I6" s="3">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="J6" s="3">
         <v>1.9</v>
       </c>
       <c r="K6" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>109900</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1920</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.03</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="K7" s="3">
         <v>4.5</v>
       </c>
     </row>
